--- a/проекты/dots.xlsx
+++ b/проекты/dots.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>.2-6</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>у+4</t>
+  </si>
+  <si>
+    <t>truth</t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:M18"/>
+  <dimension ref="F2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>6</v>
       </c>
@@ -437,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>1</v>
       </c>
@@ -459,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>2</v>
       </c>
@@ -473,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>3</v>
       </c>
@@ -484,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>4</v>
       </c>
@@ -495,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:17" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>13</v>
       </c>
@@ -503,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>7</v>
       </c>
@@ -511,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:17" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>3</v>
       </c>
@@ -519,7 +527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>17</v>
       </c>
@@ -530,7 +538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>19</v>
       </c>
@@ -538,7 +546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:17" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>21</v>
       </c>
@@ -546,7 +554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:17" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>23</v>
       </c>

--- a/проекты/dots.xlsx
+++ b/проекты/dots.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>.2-6</t>
   </si>
@@ -105,6 +106,39 @@
   </si>
   <si>
     <t>truth</t>
+  </si>
+  <si>
+    <t>наискосок</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y-4</t>
+  </si>
+  <si>
+    <t>y-3</t>
+  </si>
+  <si>
+    <t>y-2</t>
+  </si>
+  <si>
+    <t>y-1</t>
+  </si>
+  <si>
+    <t>y+1</t>
+  </si>
+  <si>
+    <t>y+2</t>
+  </si>
+  <si>
+    <t>y+3</t>
+  </si>
+  <si>
+    <t>наискосок налево</t>
+  </si>
+  <si>
+    <t>наискосок направо</t>
   </si>
 </sst>
 </file>
@@ -141,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,4 +613,512 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>